--- a/.Temp/ExcelTableToMarkDownSample.xlsx
+++ b/.Temp/ExcelTableToMarkDownSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\.Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD76384-47D4-42D2-BAAF-6C56EB53B71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17212747-2A55-4866-ADB9-AA23971D7B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -64,106 +64,76 @@
     <t>Explicación</t>
   </si>
   <si>
-    <t>from qgis.core import *</t>
-  </si>
-  <si>
-    <t>import qgis.utils</t>
-  </si>
-  <si>
-    <t>from qgis.core import QgsProject</t>
-  </si>
-  <si>
-    <t>Creación de lista con las capas disponibles en el proyecto actual. No incluye las extensiones de las capas. El For aninado dentro de los corchetes es un tipo de sintaxis compacta utilizada por Python.</t>
-  </si>
-  <si>
-    <t>for layer in QgsProject.instance().mapLayers().values():</t>
-  </si>
-  <si>
-    <t>for principal para la visualización de capas, sus atributos y tipos.</t>
-  </si>
-  <si>
-    <t>Conteo de entidades dentro de la capa actual.</t>
-  </si>
-  <si>
-    <t>Importación de paquete de utilidades generales.</t>
-  </si>
-  <si>
-    <t>Importación del núcleo de QGIS.</t>
-  </si>
-  <si>
-    <t>Importación de paquete para administración del proyecto en el GUI de la aplicación.</t>
-  </si>
-  <si>
-    <t>featureList = [layer.name() for layer in QgsProject.instance().mapLayers().values()]</t>
-  </si>
-  <si>
-    <t>totalEntidades = layer.featureCount()</t>
-  </si>
-  <si>
-    <t>if layer.wkbType() == QgsWkbTypes.Point:</t>
-  </si>
-  <si>
-    <t>Evaluación de geometría de capa para tipo punto.</t>
-  </si>
-  <si>
-    <t>elif layer.wkbType() == QgsWkbTypes.LineString:</t>
-  </si>
-  <si>
-    <t>elif layer.wkbType() == QgsWkbTypes.Polygon:</t>
-  </si>
-  <si>
-    <t>elif layer.wkbType() == QgsWkbTypes.MultiPolygon:</t>
-  </si>
-  <si>
-    <t>Evaluación de geometría de capa para tipo línea.</t>
-  </si>
-  <si>
-    <t>Evaluación de geometría de capa para tipo polígono.</t>
-  </si>
-  <si>
-    <t>Evaluación de geometría de capa para tipo multi-polígono.</t>
-  </si>
-  <si>
-    <t>for field in layer.fields():</t>
-  </si>
-  <si>
-    <t>for para evaluar cada atributo en cada registro de la capa actual.</t>
-  </si>
-  <si>
-    <t>field.name()</t>
-  </si>
-  <si>
-    <t>Nombre del campo de atributo.</t>
-  </si>
-  <si>
-    <t>field.typeName()</t>
-  </si>
-  <si>
-    <t>Tipo de atributo.</t>
-  </si>
-  <si>
-    <t>Conteo de entidades en la capa cargada en el mapa o en memoria.</t>
-  </si>
-  <si>
-    <t>Cargar una capa al mapa actual.</t>
-  </si>
-  <si>
-    <t>Cargar una capa solo en memoria.</t>
-  </si>
-  <si>
-    <t>Estilo de ploteo de gráficas en la versión 3.1.1+ de matplotlib.</t>
-  </si>
-  <si>
-    <t>plt.style.use('fast')</t>
-  </si>
-  <si>
-    <t>fCount = layerInput.featureCount()</t>
-  </si>
-  <si>
-    <t>#layerInput = iface.addVectorLayer(gisFileInput,'','ogr')</t>
-  </si>
-  <si>
-    <t>layerInput = QgsVectorLayer(gisFileInput,'','ogr')</t>
+    <t>Estadístico</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adds the total value for the specified field. </t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Calculates the average for the specified field. </t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finds the smallest value for all records of the specified field. </t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finds the largest value for all records of the specified field. </t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finds the range of values (MAX minus MIN) for the specified field. </t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finds the standard deviation on values in the specified field.</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> use the COUNT statistic on the field in question</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and a COUNT statistic on a different field which does not contain nulls (for example</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the OID if present)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> then subtract the two values. </t>
+  </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finds the first record in the Input Table and uses its specified field value. </t>
+  </si>
+  <si>
+    <t>LAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finds the last record in the Input Table and uses its specified field value.</t>
   </si>
 </sst>
 </file>
@@ -577,7 +547,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G21"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -611,10 +581,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -625,15 +595,15 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Instrucción | Explicación |</v>
+        <v>| Estadístico | Descripción |</v>
       </c>
       <c r="H3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Instrucción | Explicación | Tipo |</v>
+        <v>| Estadístico | Descripción | Tipo |</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Instrucción | Explicación | Tipo | xxx |</v>
+        <v>| Estadístico | Descripción | Tipo | xxx |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -665,393 +635,361 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| from qgis.core import * | Importación del núcleo de QGIS. |</v>
+        <v>| SUM |  Adds the total value for the specified field.  |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| from qgis.core import * | Importación del núcleo de QGIS. |  |</v>
+        <v>| SUM |  Adds the total value for the specified field.  |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| from qgis.core import * | Importación del núcleo de QGIS. |  |  |</v>
+        <v>| SUM |  Adds the total value for the specified field.  |  |  |</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G24" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| import qgis.utils | Importación de paquete de utilidades generales. |</v>
+        <v>| MEAN |  Calculates the average for the specified field.  |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| import qgis.utils | Importación de paquete de utilidades generales. |  |</v>
+        <v>| MEAN |  Calculates the average for the specified field.  |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| import qgis.utils | Importación de paquete de utilidades generales. |  |  |</v>
+        <v>| MEAN |  Calculates the average for the specified field.  |  |  |</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| from qgis.core import QgsProject | Importación de paquete para administración del proyecto en el GUI de la aplicación. |</v>
+        <v>| MIN |  Finds the smallest value for all records of the specified field.  |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| from qgis.core import QgsProject | Importación de paquete para administración del proyecto en el GUI de la aplicación. |  |</v>
+        <v>| MIN |  Finds the smallest value for all records of the specified field.  |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| from qgis.core import QgsProject | Importación de paquete para administración del proyecto en el GUI de la aplicación. |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>| MIN |  Finds the smallest value for all records of the specified field.  |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| featureList = [layer.name() for layer in QgsProject.instance().mapLayers().values()] | Creación de lista con las capas disponibles en el proyecto actual. No incluye las extensiones de las capas. El For aninado dentro de los corchetes es un tipo de sintaxis compacta utilizada por Python. |</v>
+        <v>| MAX |  Finds the largest value for all records of the specified field.  |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| featureList = [layer.name() for layer in QgsProject.instance().mapLayers().values()] | Creación de lista con las capas disponibles en el proyecto actual. No incluye las extensiones de las capas. El For aninado dentro de los corchetes es un tipo de sintaxis compacta utilizada por Python. |  |</v>
+        <v>| MAX |  Finds the largest value for all records of the specified field.  |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| featureList = [layer.name() for layer in QgsProject.instance().mapLayers().values()] | Creación de lista con las capas disponibles en el proyecto actual. No incluye las extensiones de las capas. El For aninado dentro de los corchetes es un tipo de sintaxis compacta utilizada por Python. |  |  |</v>
+        <v>| MAX |  Finds the largest value for all records of the specified field.  |  |  |</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| for layer in QgsProject.instance().mapLayers().values(): | for principal para la visualización de capas, sus atributos y tipos. |</v>
+        <v>| RANGE |  Finds the range of values (MAX minus MIN) for the specified field.  |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| for layer in QgsProject.instance().mapLayers().values(): | for principal para la visualización de capas, sus atributos y tipos. |  |</v>
+        <v>| RANGE |  Finds the range of values (MAX minus MIN) for the specified field.  |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| for layer in QgsProject.instance().mapLayers().values(): | for principal para la visualización de capas, sus atributos y tipos. |  |  |</v>
+        <v>| RANGE |  Finds the range of values (MAX minus MIN) for the specified field.  |  |  |</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| totalEntidades = layer.featureCount() | Conteo de entidades dentro de la capa actual. |</v>
+        <v>| STD |  Finds the standard deviation on values in the specified field. |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| totalEntidades = layer.featureCount() | Conteo de entidades dentro de la capa actual. |  |</v>
+        <v>| STD |  Finds the standard deviation on values in the specified field. |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| totalEntidades = layer.featureCount() | Conteo de entidades dentro de la capa actual. |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| STD |  Finds the standard deviation on values in the specified field. |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| if layer.wkbType() == QgsWkbTypes.Point: | Evaluación de geometría de capa para tipo punto. |</v>
+        <v>| COUNT |  Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| if layer.wkbType() == QgsWkbTypes.Point: | Evaluación de geometría de capa para tipo punto. |  |</v>
+        <v>| COUNT |  Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| if layer.wkbType() == QgsWkbTypes.Point: | Evaluación de geometría de capa para tipo punto. |  |  |</v>
+        <v>| COUNT |  Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field |  |  |</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| elif layer.wkbType() == QgsWkbTypes.LineString: | Evaluación de geometría de capa para tipo línea. |</v>
+        <v>| FIRST |  Finds the first record in the Input Table and uses its specified field value.  |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| elif layer.wkbType() == QgsWkbTypes.LineString: | Evaluación de geometría de capa para tipo línea. |  |</v>
+        <v>| FIRST |  Finds the first record in the Input Table and uses its specified field value.  |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| elif layer.wkbType() == QgsWkbTypes.LineString: | Evaluación de geometría de capa para tipo línea. |  |  |</v>
+        <v>| FIRST |  Finds the first record in the Input Table and uses its specified field value.  |  |  |</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| elif layer.wkbType() == QgsWkbTypes.Polygon: | Evaluación de geometría de capa para tipo polígono. |</v>
+        <v>| LAST |  Finds the last record in the Input Table and uses its specified field value. |</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| elif layer.wkbType() == QgsWkbTypes.Polygon: | Evaluación de geometría de capa para tipo polígono. |  |</v>
+        <v>| LAST |  Finds the last record in the Input Table and uses its specified field value. |  |</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| elif layer.wkbType() == QgsWkbTypes.Polygon: | Evaluación de geometría de capa para tipo polígono. |  |  |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>| LAST |  Finds the last record in the Input Table and uses its specified field value. |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| elif layer.wkbType() == QgsWkbTypes.MultiPolygon: | Evaluación de geometría de capa para tipo multi-polígono. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| elif layer.wkbType() == QgsWkbTypes.MultiPolygon: | Evaluación de geometría de capa para tipo multi-polígono. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| elif layer.wkbType() == QgsWkbTypes.MultiPolygon: | Evaluación de geometría de capa para tipo multi-polígono. |  |  |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| for field in layer.fields(): | for para evaluar cada atributo en cada registro de la capa actual. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| for field in layer.fields(): | for para evaluar cada atributo en cada registro de la capa actual. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| for field in layer.fields(): | for para evaluar cada atributo en cada registro de la capa actual. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| field.name() | Nombre del campo de atributo. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| field.name() | Nombre del campo de atributo. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| field.name() | Nombre del campo de atributo. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| field.typeName() | Tipo de atributo. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| field.typeName() | Tipo de atributo. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| field.typeName() | Tipo de atributo. |  |  |</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| #layerInput = iface.addVectorLayer(gisFileInput,'','ogr') | Cargar una capa al mapa actual. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| #layerInput = iface.addVectorLayer(gisFileInput,'','ogr') | Cargar una capa al mapa actual. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| #layerInput = iface.addVectorLayer(gisFileInput,'','ogr') | Cargar una capa al mapa actual. |  |  |</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| layerInput = QgsVectorLayer(gisFileInput,'','ogr') | Cargar una capa solo en memoria. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| layerInput = QgsVectorLayer(gisFileInput,'','ogr') | Cargar una capa solo en memoria. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| layerInput = QgsVectorLayer(gisFileInput,'','ogr') | Cargar una capa solo en memoria. |  |  |</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| fCount = layerInput.featureCount() | Conteo de entidades en la capa cargada en el mapa o en memoria. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| fCount = layerInput.featureCount() | Conteo de entidades en la capa cargada en el mapa o en memoria. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| fCount = layerInput.featureCount() | Conteo de entidades en la capa cargada en el mapa o en memoria. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| plt.style.use('fast') | Estilo de ploteo de gráficas en la versión 3.1.1+ de matplotlib. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| plt.style.use('fast') | Estilo de ploteo de gráficas en la versión 3.1.1+ de matplotlib. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| plt.style.use('fast') | Estilo de ploteo de gráficas en la versión 3.1.1+ de matplotlib. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -2620,10 +2558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E841DB0-A52A-4B8E-BF88-9BC07F3D477C}">
-  <dimension ref="B2:C19"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="B3:C19"/>
+      <selection activeCell="B3" sqref="B3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2633,7 +2571,7 @@
     <col min="3" max="3" width="158.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2641,140 +2579,88 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/.Temp/ExcelTableToMarkDownSample.xlsx
+++ b/.Temp/ExcelTableToMarkDownSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\.Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17212747-2A55-4866-ADB9-AA23971D7B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B98FA-2C85-4DC7-BB85-BDDD1ADC8904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Texto para cuatro columnas</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -134,6 +128,63 @@
   </si>
   <si>
     <t xml:space="preserve"> Finds the last record in the Input Table and uses its specified field value.</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>The median for all records of the specified field will be calculated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finds the first record in the Input Table and uses its specified field value. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adds the total value for the specified field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculates the average for the specified field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finds the smallest value for all records of the specified field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finds the largest value for all records of the specified field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finds the range of values (MAX minus MIN) for the specified field. </t>
+  </si>
+  <si>
+    <t>Finds the standard deviation on values in the specified field.</t>
+  </si>
+  <si>
+    <t>Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field</t>
+  </si>
+  <si>
+    <t>Finds the last record in the Input Table and uses its specified field value.</t>
+  </si>
+  <si>
+    <t>VARIANCE</t>
+  </si>
+  <si>
+    <t>The variance for all records of the specified field will be calculated.</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>The number of unique values of the specified field will be counted.</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -547,13 +598,13 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G13"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="79" style="1" customWidth="1"/>
     <col min="4" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" style="1" customWidth="1"/>
@@ -581,16 +632,16 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="str">
@@ -599,25 +650,25 @@
       </c>
       <c r="H3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Estadístico | Descripción | Tipo |</v>
+        <v>| Estadístico | Descripción | Desktop |</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Estadístico | Descripción | Tipo | xxx |</v>
+        <v>| Estadístico | Descripción | Desktop | Pro |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="str">
@@ -635,266 +686,326 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| SUM |  Adds the total value for the specified field.  |</v>
+        <v>| SUM | Adds the total value for the specified field.  |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| SUM |  Adds the total value for the specified field.  |  |</v>
+        <v>| SUM | Adds the total value for the specified field.  | Yes |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| SUM |  Adds the total value for the specified field.  |  |  |</v>
+        <v>| SUM | Adds the total value for the specified field.  | Yes | Yes |</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G24" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| MEAN |  Calculates the average for the specified field.  |</v>
+        <v>| MEAN | Calculates the average for the specified field.  |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| MEAN |  Calculates the average for the specified field.  |  |</v>
+        <v>| MEAN | Calculates the average for the specified field.  | Yes |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| MEAN |  Calculates the average for the specified field.  |  |  |</v>
+        <v>| MEAN | Calculates the average for the specified field.  | Yes | Yes |</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| MIN |  Finds the smallest value for all records of the specified field.  |</v>
+        <v>| MIN | Finds the smallest value for all records of the specified field.  |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| MIN |  Finds the smallest value for all records of the specified field.  |  |</v>
+        <v>| MIN | Finds the smallest value for all records of the specified field.  | Yes |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| MIN |  Finds the smallest value for all records of the specified field.  |  |  |</v>
+        <v>| MIN | Finds the smallest value for all records of the specified field.  | Yes | Yes |</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| MAX |  Finds the largest value for all records of the specified field.  |</v>
+        <v>| MAX | Finds the largest value for all records of the specified field.  |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| MAX |  Finds the largest value for all records of the specified field.  |  |</v>
+        <v>| MAX | Finds the largest value for all records of the specified field.  | Yes |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| MAX |  Finds the largest value for all records of the specified field.  |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| MAX | Finds the largest value for all records of the specified field.  | Yes | Yes |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| RANGE |  Finds the range of values (MAX minus MIN) for the specified field.  |</v>
+        <v>| RANGE | Finds the range of values (MAX minus MIN) for the specified field.  |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| RANGE |  Finds the range of values (MAX minus MIN) for the specified field.  |  |</v>
+        <v>| RANGE | Finds the range of values (MAX minus MIN) for the specified field.  | Yes |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| RANGE |  Finds the range of values (MAX minus MIN) for the specified field.  |  |  |</v>
+        <v>| RANGE | Finds the range of values (MAX minus MIN) for the specified field.  | Yes | Yes |</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| STD |  Finds the standard deviation on values in the specified field. |</v>
+        <v>| STD | Finds the standard deviation on values in the specified field. |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| STD |  Finds the standard deviation on values in the specified field. |  |</v>
+        <v>| STD | Finds the standard deviation on values in the specified field. | Yes |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| STD |  Finds the standard deviation on values in the specified field. |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| STD | Finds the standard deviation on values in the specified field. | Yes | Yes |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| COUNT |  Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field |</v>
+        <v>| COUNT | Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| COUNT |  Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field |  |</v>
+        <v>| COUNT | Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field | Yes |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| COUNT |  Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field |  |  |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| COUNT | Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field | Yes | Yes |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| FIRST |  Finds the first record in the Input Table and uses its specified field value.  |</v>
+        <v>| FIRST | Finds the first record in the Input Table and uses its specified field value.  |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| FIRST |  Finds the first record in the Input Table and uses its specified field value.  |  |</v>
+        <v>| FIRST | Finds the first record in the Input Table and uses its specified field value.  | Yes |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| FIRST |  Finds the first record in the Input Table and uses its specified field value.  |  |  |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| FIRST | Finds the first record in the Input Table and uses its specified field value.  | Yes | Yes |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| LAST |  Finds the last record in the Input Table and uses its specified field value. |</v>
+        <v>| LAST | Finds the last record in the Input Table and uses its specified field value. |</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| LAST |  Finds the last record in the Input Table and uses its specified field value. |  |</v>
+        <v>| LAST | Finds the last record in the Input Table and uses its specified field value. | Yes |</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| LAST |  Finds the last record in the Input Table and uses its specified field value. |  |  |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+        <v>| LAST | Finds the last record in the Input Table and uses its specified field value. | Yes | Yes |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| MEDIAN | The median for all records of the specified field will be calculated. |</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| MEDIAN | The median for all records of the specified field will be calculated. | No |</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+        <v>| MEDIAN | The median for all records of the specified field will be calculated. | No | Yes |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| VARIANCE | The variance for all records of the specified field will be calculated. |</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| VARIANCE | The variance for all records of the specified field will be calculated. | No |</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| VARIANCE | The variance for all records of the specified field will be calculated. | No | Yes |</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| UNIQUE | The number of unique values of the specified field will be counted. |</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| UNIQUE | The number of unique values of the specified field will be counted. | No |</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| UNIQUE | The number of unique values of the specified field will be counted. | No | Yes |</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -2573,94 +2684,94 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/.Temp/ExcelTableToMarkDownSample.xlsx
+++ b/.Temp/ExcelTableToMarkDownSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\.Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B98FA-2C85-4DC7-BB85-BDDD1ADC8904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA030F8-CA6E-4D6B-B612-299B0D20A328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Explicación</t>
   </si>
   <si>
-    <t>Estadístico</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -136,55 +133,106 @@
     <t>Pro</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>MEDIAN</t>
-  </si>
-  <si>
-    <t>The median for all records of the specified field will be calculated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finds the first record in the Input Table and uses its specified field value. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds the total value for the specified field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculates the average for the specified field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finds the smallest value for all records of the specified field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finds the largest value for all records of the specified field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finds the range of values (MAX minus MIN) for the specified field. </t>
-  </si>
-  <si>
-    <t>Finds the standard deviation on values in the specified field.</t>
-  </si>
-  <si>
-    <t>Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field</t>
-  </si>
-  <si>
-    <t>Finds the last record in the Input Table and uses its specified field value.</t>
-  </si>
-  <si>
-    <t>VARIANCE</t>
-  </si>
-  <si>
-    <t>The variance for all records of the specified field will be calculated.</t>
-  </si>
-  <si>
-    <t>UNIQUE</t>
-  </si>
-  <si>
-    <t>The number of unique values of the specified field will be counted.</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>import arcpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importación de arcpy de ArcGIS for Desktop y ArcGIS Pro. </t>
+  </si>
+  <si>
+    <t>from arcpy import env</t>
+  </si>
+  <si>
+    <t>Importación de librería para manejo del entorno de trabajo.</t>
+  </si>
+  <si>
+    <t>arcpy.env.overwriteOutput = True</t>
+  </si>
+  <si>
+    <t>Permitir sobreescribir archivos en directorio del entorno de trabajo.</t>
+  </si>
+  <si>
+    <t>import sys</t>
+  </si>
+  <si>
+    <t>Importación de librería nativa de sistema en Python.</t>
+  </si>
+  <si>
+    <t>def Separador(n=24)</t>
+  </si>
+  <si>
+    <t>Función para creación de líneas de separación</t>
+  </si>
+  <si>
+    <t>def CapaPropiedades(i)</t>
+  </si>
+  <si>
+    <t>Función para consultar los campos de atributos disponibles en una capa geográfica.</t>
+  </si>
+  <si>
+    <t>arcpy.GetCount_management()</t>
+  </si>
+  <si>
+    <t>Cuenta el número de entidades en una capa.</t>
+  </si>
+  <si>
+    <t>arcpy.Describe</t>
+  </si>
+  <si>
+    <t>Descripción de la geometría de la capa.</t>
+  </si>
+  <si>
+    <t>descGeometria.shapeType</t>
+  </si>
+  <si>
+    <t>Descripción del tipo de geometría vectorial de la capa.</t>
+  </si>
+  <si>
+    <t>arcpy.ListFields()</t>
+  </si>
+  <si>
+    <t>Lista los campos de atributos de una capa. Liego de la asignación a una variable local, los parámetros nombre y tipo pueden ser obtenidos con `.name` y `.type`.</t>
+  </si>
+  <si>
+    <t>arcpy.env.workspace = 'mypath'</t>
+  </si>
+  <si>
+    <t>Definición de la ruta de localización del espacio de trabajo.</t>
+  </si>
+  <si>
+    <t>sys.version</t>
+  </si>
+  <si>
+    <t>sys.path[0:5]</t>
+  </si>
+  <si>
+    <t>Muestra la versión de Python sobre la que se ejecuta el script.</t>
+  </si>
+  <si>
+    <t>Muestra las rutas asociadas a la versión de Python utilizada entre las posiciones 0 a 5.</t>
+  </si>
+  <si>
+    <t>input()</t>
+  </si>
+  <si>
+    <t>Entrada de usuario por consola.</t>
+  </si>
+  <si>
+    <t>statisticsType = [[fieldEval,'SUM'],[fieldEval,'MEAN'],[fieldEval,'MIN'],[fieldEval,'MAX'],[fieldEval,'RANGE'],[fieldEval,'STD'],[fieldEval,'COUNT'],[fieldEval,'FIRST'],[fieldEval,'LAST']]</t>
+  </si>
+  <si>
+    <t>Estadísticos a obtener a través de arcpy.Statistics_analysis.</t>
+  </si>
+  <si>
+    <t>arcpy.Statistics_analysis(layerInput,layerOutpu,statisticsType)</t>
+  </si>
+  <si>
+    <t>Obtención de estadísticos de la capa.</t>
+  </si>
+  <si>
+    <t>arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS)</t>
+  </si>
+  <si>
+    <t>Conversión de tabla a libro de Excel.</t>
   </si>
 </sst>
 </file>
@@ -598,7 +646,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D16"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -632,29 +680,29 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Estadístico | Descripción |</v>
+        <v>| Instrucción | Descripción |</v>
       </c>
       <c r="H3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Estadístico | Descripción | Desktop |</v>
+        <v>| Instrucción | Descripción | Desktop |</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Estadístico | Descripción | Desktop | Pro |</v>
+        <v>| Instrucción | Descripción | Desktop | Pro |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -686,421 +734,393 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| SUM | Adds the total value for the specified field.  |</v>
+        <v>| import arcpy | Importación de arcpy de ArcGIS for Desktop y ArcGIS Pro.  |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| SUM | Adds the total value for the specified field.  | Yes |</v>
+        <v>| import arcpy | Importación de arcpy de ArcGIS for Desktop y ArcGIS Pro.  |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| SUM | Adds the total value for the specified field.  | Yes | Yes |</v>
+        <v>| import arcpy | Importación de arcpy de ArcGIS for Desktop y ArcGIS Pro.  |  |  |</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G24" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| MEAN | Calculates the average for the specified field.  |</v>
+        <v>| from arcpy import env | Importación de librería para manejo del entorno de trabajo. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| MEAN | Calculates the average for the specified field.  | Yes |</v>
+        <v>| from arcpy import env | Importación de librería para manejo del entorno de trabajo. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| MEAN | Calculates the average for the specified field.  | Yes | Yes |</v>
+        <v>| from arcpy import env | Importación de librería para manejo del entorno de trabajo. |  |  |</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| MIN | Finds the smallest value for all records of the specified field.  |</v>
+        <v>| arcpy.env.overwriteOutput = True | Permitir sobreescribir archivos en directorio del entorno de trabajo. |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| MIN | Finds the smallest value for all records of the specified field.  | Yes |</v>
+        <v>| arcpy.env.overwriteOutput = True | Permitir sobreescribir archivos en directorio del entorno de trabajo. |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| MIN | Finds the smallest value for all records of the specified field.  | Yes | Yes |</v>
+        <v>| arcpy.env.overwriteOutput = True | Permitir sobreescribir archivos en directorio del entorno de trabajo. |  |  |</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| MAX | Finds the largest value for all records of the specified field.  |</v>
+        <v>| import sys | Importación de librería nativa de sistema en Python. |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| MAX | Finds the largest value for all records of the specified field.  | Yes |</v>
+        <v>| import sys | Importación de librería nativa de sistema en Python. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| MAX | Finds the largest value for all records of the specified field.  | Yes | Yes |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| import sys | Importación de librería nativa de sistema en Python. |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| RANGE | Finds the range of values (MAX minus MIN) for the specified field.  |</v>
+        <v>| def Separador(n=24) | Función para creación de líneas de separación |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| RANGE | Finds the range of values (MAX minus MIN) for the specified field.  | Yes |</v>
+        <v>| def Separador(n=24) | Función para creación de líneas de separación |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| RANGE | Finds the range of values (MAX minus MIN) for the specified field.  | Yes | Yes |</v>
+        <v>| def Separador(n=24) | Función para creación de líneas de separación |  |  |</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| STD | Finds the standard deviation on values in the specified field. |</v>
+        <v>| def CapaPropiedades(i) | Función para consultar los campos de atributos disponibles en una capa geográfica. |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| STD | Finds the standard deviation on values in the specified field. | Yes |</v>
+        <v>| def CapaPropiedades(i) | Función para consultar los campos de atributos disponibles en una capa geográfica. |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| STD | Finds the standard deviation on values in the specified field. | Yes | Yes |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>| def CapaPropiedades(i) | Función para consultar los campos de atributos disponibles en una capa geográfica. |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| COUNT | Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field |</v>
+        <v>| arcpy.GetCount_management() | Cuenta el número de entidades en una capa. |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| COUNT | Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field | Yes |</v>
+        <v>| arcpy.GetCount_management() | Cuenta el número de entidades en una capa. |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| COUNT | Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field | Yes | Yes |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| arcpy.GetCount_management() | Cuenta el número de entidades en una capa. |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| FIRST | Finds the first record in the Input Table and uses its specified field value.  |</v>
+        <v>| arcpy.Describe | Descripción de la geometría de la capa. |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| FIRST | Finds the first record in the Input Table and uses its specified field value.  | Yes |</v>
+        <v>| arcpy.Describe | Descripción de la geometría de la capa. |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| FIRST | Finds the first record in the Input Table and uses its specified field value.  | Yes | Yes |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| arcpy.Describe | Descripción de la geometría de la capa. |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| LAST | Finds the last record in the Input Table and uses its specified field value. |</v>
+        <v>| descGeometria.shapeType | Descripción del tipo de geometría vectorial de la capa. |</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| LAST | Finds the last record in the Input Table and uses its specified field value. | Yes |</v>
+        <v>| descGeometria.shapeType | Descripción del tipo de geometría vectorial de la capa. |  |</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| LAST | Finds the last record in the Input Table and uses its specified field value. | Yes | Yes |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| descGeometria.shapeType | Descripción del tipo de geometría vectorial de la capa. |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| MEDIAN | The median for all records of the specified field will be calculated. |</v>
+        <v>| arcpy.ListFields() | Lista los campos de atributos de una capa. Liego de la asignación a una variable local, los parámetros nombre y tipo pueden ser obtenidos con `.name` y `.type`. |</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| MEDIAN | The median for all records of the specified field will be calculated. | No |</v>
+        <v>| arcpy.ListFields() | Lista los campos de atributos de una capa. Liego de la asignación a una variable local, los parámetros nombre y tipo pueden ser obtenidos con `.name` y `.type`. |  |</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| MEDIAN | The median for all records of the specified field will be calculated. | No | Yes |</v>
+        <v>| arcpy.ListFields() | Lista los campos de atributos de una capa. Liego de la asignación a una variable local, los parámetros nombre y tipo pueden ser obtenidos con `.name` y `.type`. |  |  |</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| VARIANCE | The variance for all records of the specified field will be calculated. |</v>
+        <v>| arcpy.env.workspace = 'mypath' | Definición de la ruta de localización del espacio de trabajo. |</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| VARIANCE | The variance for all records of the specified field will be calculated. | No |</v>
+        <v>| arcpy.env.workspace = 'mypath' | Definición de la ruta de localización del espacio de trabajo. |  |</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| VARIANCE | The variance for all records of the specified field will be calculated. | No | Yes |</v>
+        <v>| arcpy.env.workspace = 'mypath' | Definición de la ruta de localización del espacio de trabajo. |  |  |</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| UNIQUE | The number of unique values of the specified field will be counted. |</v>
+        <v>| sys.version | Muestra la versión de Python sobre la que se ejecuta el script. |</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| UNIQUE | The number of unique values of the specified field will be counted. | No |</v>
+        <v>| sys.version | Muestra la versión de Python sobre la que se ejecuta el script. |  |</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| UNIQUE | The number of unique values of the specified field will be counted. | No | Yes |</v>
+        <v>| sys.version | Muestra la versión de Python sobre la que se ejecuta el script. |  |  |</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| sys.path[0:5] | Muestra las rutas asociadas a la versión de Python utilizada entre las posiciones 0 a 5. |</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| sys.path[0:5] | Muestra las rutas asociadas a la versión de Python utilizada entre las posiciones 0 a 5. |  |</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+        <v>| sys.path[0:5] | Muestra las rutas asociadas a la versión de Python utilizada entre las posiciones 0 a 5. |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| input() | Entrada de usuario por consola. |</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| input() | Entrada de usuario por consola. |  |</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+        <v>| input() | Entrada de usuario por consola. |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| statisticsType = [[fieldEval,'SUM'],[fieldEval,'MEAN'],[fieldEval,'MIN'],[fieldEval,'MAX'],[fieldEval,'RANGE'],[fieldEval,'STD'],[fieldEval,'COUNT'],[fieldEval,'FIRST'],[fieldEval,'LAST']] | Estadísticos a obtener a través de arcpy.Statistics_analysis. |</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| statisticsType = [[fieldEval,'SUM'],[fieldEval,'MEAN'],[fieldEval,'MIN'],[fieldEval,'MAX'],[fieldEval,'RANGE'],[fieldEval,'STD'],[fieldEval,'COUNT'],[fieldEval,'FIRST'],[fieldEval,'LAST']] | Estadísticos a obtener a través de arcpy.Statistics_analysis. |  |</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| statisticsType = [[fieldEval,'SUM'],[fieldEval,'MEAN'],[fieldEval,'MIN'],[fieldEval,'MAX'],[fieldEval,'RANGE'],[fieldEval,'STD'],[fieldEval,'COUNT'],[fieldEval,'FIRST'],[fieldEval,'LAST']] | Estadísticos a obtener a través de arcpy.Statistics_analysis. |  |  |</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| arcpy.Statistics_analysis(layerInput,layerOutpu,statisticsType) | Obtención de estadísticos de la capa. |</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| arcpy.Statistics_analysis(layerInput,layerOutpu,statisticsType) | Obtención de estadísticos de la capa. |  |</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+        <v>| arcpy.Statistics_analysis(layerInput,layerOutpu,statisticsType) | Obtención de estadísticos de la capa. |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Excel. |</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Excel. |  |</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Excel. |  |  |</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -2692,86 +2712,86 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/.Temp/ExcelTableToMarkDownSample.xlsx
+++ b/.Temp/ExcelTableToMarkDownSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\.Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA030F8-CA6E-4D6B-B612-299B0D20A328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59621435-0375-4C85-BC67-1B11AEAE76AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
     <t>arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS)</t>
   </si>
   <si>
-    <t>Conversión de tabla a libro de Excel.</t>
+    <t>Conversión de tabla a libro de Microsoft Excel.</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
         <v>| from arcpy import env | Importación de librería para manejo del entorno de trabajo. |  |  |</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>36</v>
       </c>
@@ -939,7 +939,7 @@
         <v>| descGeometria.shapeType | Descripción del tipo de geometría vectorial de la capa. |  |  |</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>50</v>
       </c>
@@ -962,7 +962,7 @@
         <v>| arcpy.ListFields() | Lista los campos de atributos de una capa. Liego de la asignación a una variable local, los parámetros nombre y tipo pueden ser obtenidos con `.name` y `.type`. |  |  |</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
@@ -1112,15 +1112,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Excel. |</v>
+        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Microsoft Excel. |</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Excel. |  |</v>
+        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Microsoft Excel. |  |</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Excel. |  |  |</v>
+        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Microsoft Excel. |  |  |</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">

--- a/.Temp/ExcelTableToMarkDownSample.xlsx
+++ b/.Temp/ExcelTableToMarkDownSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\.Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59621435-0375-4C85-BC67-1B11AEAE76AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07427817-3515-4A76-BF70-D9AB5A627083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -133,106 +133,52 @@
     <t>Pro</t>
   </si>
   <si>
-    <t>import arcpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importación de arcpy de ArcGIS for Desktop y ArcGIS Pro. </t>
-  </si>
-  <si>
-    <t>from arcpy import env</t>
-  </si>
-  <si>
-    <t>Importación de librería para manejo del entorno de trabajo.</t>
-  </si>
-  <si>
-    <t>arcpy.env.overwriteOutput = True</t>
-  </si>
-  <si>
-    <t>Permitir sobreescribir archivos en directorio del entorno de trabajo.</t>
-  </si>
-  <si>
-    <t>import sys</t>
-  </si>
-  <si>
-    <t>Importación de librería nativa de sistema en Python.</t>
-  </si>
-  <si>
-    <t>def Separador(n=24)</t>
-  </si>
-  <si>
-    <t>Función para creación de líneas de separación</t>
-  </si>
-  <si>
-    <t>def CapaPropiedades(i)</t>
-  </si>
-  <si>
-    <t>Función para consultar los campos de atributos disponibles en una capa geográfica.</t>
-  </si>
-  <si>
-    <t>arcpy.GetCount_management()</t>
-  </si>
-  <si>
-    <t>Cuenta el número de entidades en una capa.</t>
-  </si>
-  <si>
-    <t>arcpy.Describe</t>
-  </si>
-  <si>
-    <t>Descripción de la geometría de la capa.</t>
-  </si>
-  <si>
-    <t>descGeometria.shapeType</t>
-  </si>
-  <si>
-    <t>Descripción del tipo de geometría vectorial de la capa.</t>
-  </si>
-  <si>
-    <t>arcpy.ListFields()</t>
-  </si>
-  <si>
-    <t>Lista los campos de atributos de una capa. Liego de la asignación a una variable local, los parámetros nombre y tipo pueden ser obtenidos con `.name` y `.type`.</t>
-  </si>
-  <si>
-    <t>arcpy.env.workspace = 'mypath'</t>
-  </si>
-  <si>
-    <t>Definición de la ruta de localización del espacio de trabajo.</t>
-  </si>
-  <si>
-    <t>sys.version</t>
-  </si>
-  <si>
-    <t>sys.path[0:5]</t>
-  </si>
-  <si>
-    <t>Muestra la versión de Python sobre la que se ejecuta el script.</t>
-  </si>
-  <si>
-    <t>Muestra las rutas asociadas a la versión de Python utilizada entre las posiciones 0 a 5.</t>
-  </si>
-  <si>
-    <t>input()</t>
-  </si>
-  <si>
-    <t>Entrada de usuario por consola.</t>
-  </si>
-  <si>
-    <t>statisticsType = [[fieldEval,'SUM'],[fieldEval,'MEAN'],[fieldEval,'MIN'],[fieldEval,'MAX'],[fieldEval,'RANGE'],[fieldEval,'STD'],[fieldEval,'COUNT'],[fieldEval,'FIRST'],[fieldEval,'LAST']]</t>
-  </si>
-  <si>
-    <t>Estadísticos a obtener a través de arcpy.Statistics_analysis.</t>
-  </si>
-  <si>
-    <t>arcpy.Statistics_analysis(layerInput,layerOutpu,statisticsType)</t>
-  </si>
-  <si>
-    <t>Obtención de estadísticos de la capa.</t>
-  </si>
-  <si>
-    <t>arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS)</t>
-  </si>
-  <si>
-    <t>Conversión de tabla a libro de Microsoft Excel.</t>
+    <t>from qgis.core import *</t>
+  </si>
+  <si>
+    <t>import qgis.utils</t>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt</t>
+  </si>
+  <si>
+    <t>layerMAPProject = iface.addVectorLayer(layerInput,'','ogr')</t>
+  </si>
+  <si>
+    <t>layerMAPProject = QgsVectorLayer(layerInput,'','ogr')</t>
+  </si>
+  <si>
+    <t>Cargar capa a analizar en memoria de QGIS sin visualizar en el GUI.</t>
+  </si>
+  <si>
+    <t>layerMAPProject.id()</t>
+  </si>
+  <si>
+    <t>Importación del núcleo de QGIS.</t>
+  </si>
+  <si>
+    <t>Importación de paquete de utilidades generales.</t>
+  </si>
+  <si>
+    <t>Importación de paquete para administración del proyecto en el GUI de la aplicación.</t>
+  </si>
+  <si>
+    <t>Cargar y visualizar capa a analizar en mapa de QGIS. layerMAPProject corresponde a la variable de usuario definida para almacenar el identificador de la capa de entrada.</t>
+  </si>
+  <si>
+    <t>Mostrar el nombre del identificador interno de la capa en el entorno de QGIS.</t>
+  </si>
+  <si>
+    <t>layerMAPProject.fields()</t>
+  </si>
+  <si>
+    <t>Listar campos disponibles en la capa.</t>
+  </si>
+  <si>
+    <t>layerMAPProject.featureCount()</t>
+  </si>
+  <si>
+    <t>Contar el número de entidades espaciales de la capa.</t>
   </si>
 </sst>
 </file>
@@ -646,13 +592,13 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68" style="1" customWidth="1"/>
     <col min="3" max="3" width="79" style="1" customWidth="1"/>
     <col min="4" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" style="1" customWidth="1"/>
@@ -737,119 +683,119 @@
         <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| import arcpy | Importación de arcpy de ArcGIS for Desktop y ArcGIS Pro.  |</v>
+        <v>| from qgis.core import * | Importación del núcleo de QGIS. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| import arcpy | Importación de arcpy de ArcGIS for Desktop y ArcGIS Pro.  |  |</v>
+        <v>| from qgis.core import * | Importación del núcleo de QGIS. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| import arcpy | Importación de arcpy de ArcGIS for Desktop y ArcGIS Pro.  |  |  |</v>
+        <v>| from qgis.core import * | Importación del núcleo de QGIS. |  |  |</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G24" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| from arcpy import env | Importación de librería para manejo del entorno de trabajo. |</v>
+        <v>| import qgis.utils | Importación de paquete de utilidades generales. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| from arcpy import env | Importación de librería para manejo del entorno de trabajo. |  |</v>
+        <v>| import qgis.utils | Importación de paquete de utilidades generales. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| from arcpy import env | Importación de librería para manejo del entorno de trabajo. |  |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| import qgis.utils | Importación de paquete de utilidades generales. |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| arcpy.env.overwriteOutput = True | Permitir sobreescribir archivos en directorio del entorno de trabajo. |</v>
+        <v>| import matplotlib.pyplot as plt | Importación de paquete para administración del proyecto en el GUI de la aplicación. |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| arcpy.env.overwriteOutput = True | Permitir sobreescribir archivos en directorio del entorno de trabajo. |  |</v>
+        <v>| import matplotlib.pyplot as plt | Importación de paquete para administración del proyecto en el GUI de la aplicación. |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| arcpy.env.overwriteOutput = True | Permitir sobreescribir archivos en directorio del entorno de trabajo. |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| import matplotlib.pyplot as plt | Importación de paquete para administración del proyecto en el GUI de la aplicación. |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| import sys | Importación de librería nativa de sistema en Python. |</v>
+        <v>| layerMAPProject = iface.addVectorLayer(layerInput,'','ogr') | Cargar y visualizar capa a analizar en mapa de QGIS. layerMAPProject corresponde a la variable de usuario definida para almacenar el identificador de la capa de entrada. |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| import sys | Importación de librería nativa de sistema en Python. |  |</v>
+        <v>| layerMAPProject = iface.addVectorLayer(layerInput,'','ogr') | Cargar y visualizar capa a analizar en mapa de QGIS. layerMAPProject corresponde a la variable de usuario definida para almacenar el identificador de la capa de entrada. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| import sys | Importación de librería nativa de sistema en Python. |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| layerMAPProject = iface.addVectorLayer(layerInput,'','ogr') | Cargar y visualizar capa a analizar en mapa de QGIS. layerMAPProject corresponde a la variable de usuario definida para almacenar el identificador de la capa de entrada. |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| def Separador(n=24) | Función para creación de líneas de separación |</v>
+        <v>| layerMAPProject = QgsVectorLayer(layerInput,'','ogr') | Cargar capa a analizar en memoria de QGIS sin visualizar en el GUI. |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| def Separador(n=24) | Función para creación de líneas de separación |  |</v>
+        <v>| layerMAPProject = QgsVectorLayer(layerInput,'','ogr') | Cargar capa a analizar en memoria de QGIS sin visualizar en el GUI. |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| def Separador(n=24) | Función para creación de líneas de separación |  |  |</v>
+        <v>| layerMAPProject = QgsVectorLayer(layerInput,'','ogr') | Cargar capa a analizar en memoria de QGIS sin visualizar en el GUI. |  |  |</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>43</v>
@@ -859,15 +805,15 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| def CapaPropiedades(i) | Función para consultar los campos de atributos disponibles en una capa geográfica. |</v>
+        <v>| layerMAPProject.id() | Mostrar el nombre del identificador interno de la capa en el entorno de QGIS. |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| def CapaPropiedades(i) | Función para consultar los campos de atributos disponibles en una capa geográfica. |  |</v>
+        <v>| layerMAPProject.id() | Mostrar el nombre del identificador interno de la capa en el entorno de QGIS. |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| def CapaPropiedades(i) | Función para consultar los campos de atributos disponibles en una capa geográfica. |  |  |</v>
+        <v>| layerMAPProject.id() | Mostrar el nombre del identificador interno de la capa en el entorno de QGIS. |  |  |</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -882,15 +828,15 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| arcpy.GetCount_management() | Cuenta el número de entidades en una capa. |</v>
+        <v>| layerMAPProject.fields() | Listar campos disponibles en la capa. |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| arcpy.GetCount_management() | Cuenta el número de entidades en una capa. |  |</v>
+        <v>| layerMAPProject.fields() | Listar campos disponibles en la capa. |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| arcpy.GetCount_management() | Cuenta el número de entidades en una capa. |  |  |</v>
+        <v>| layerMAPProject.fields() | Listar campos disponibles en la capa. |  |  |</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -905,222 +851,186 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| arcpy.Describe | Descripción de la geometría de la capa. |</v>
+        <v>| layerMAPProject.featureCount() | Contar el número de entidades espaciales de la capa. |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| arcpy.Describe | Descripción de la geometría de la capa. |  |</v>
+        <v>| layerMAPProject.featureCount() | Contar el número de entidades espaciales de la capa. |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| arcpy.Describe | Descripción de la geometría de la capa. |  |  |</v>
+        <v>| layerMAPProject.featureCount() | Contar el número de entidades espaciales de la capa. |  |  |</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| descGeometria.shapeType | Descripción del tipo de geometría vectorial de la capa. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| descGeometria.shapeType | Descripción del tipo de geometría vectorial de la capa. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| descGeometria.shapeType | Descripción del tipo de geometría vectorial de la capa. |  |  |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| arcpy.ListFields() | Lista los campos de atributos de una capa. Liego de la asignación a una variable local, los parámetros nombre y tipo pueden ser obtenidos con `.name` y `.type`. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| arcpy.ListFields() | Lista los campos de atributos de una capa. Liego de la asignación a una variable local, los parámetros nombre y tipo pueden ser obtenidos con `.name` y `.type`. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| arcpy.ListFields() | Lista los campos de atributos de una capa. Liego de la asignación a una variable local, los parámetros nombre y tipo pueden ser obtenidos con `.name` y `.type`. |  |  |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| arcpy.env.workspace = 'mypath' | Definición de la ruta de localización del espacio de trabajo. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| arcpy.env.workspace = 'mypath' | Definición de la ruta de localización del espacio de trabajo. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| arcpy.env.workspace = 'mypath' | Definición de la ruta de localización del espacio de trabajo. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| sys.version | Muestra la versión de Python sobre la que se ejecuta el script. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| sys.version | Muestra la versión de Python sobre la que se ejecuta el script. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| sys.version | Muestra la versión de Python sobre la que se ejecuta el script. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| sys.path[0:5] | Muestra las rutas asociadas a la versión de Python utilizada entre las posiciones 0 a 5. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| sys.path[0:5] | Muestra las rutas asociadas a la versión de Python utilizada entre las posiciones 0 a 5. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| sys.path[0:5] | Muestra las rutas asociadas a la versión de Python utilizada entre las posiciones 0 a 5. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| input() | Entrada de usuario por consola. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| input() | Entrada de usuario por consola. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| input() | Entrada de usuario por consola. |  |  |</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| statisticsType = [[fieldEval,'SUM'],[fieldEval,'MEAN'],[fieldEval,'MIN'],[fieldEval,'MAX'],[fieldEval,'RANGE'],[fieldEval,'STD'],[fieldEval,'COUNT'],[fieldEval,'FIRST'],[fieldEval,'LAST']] | Estadísticos a obtener a través de arcpy.Statistics_analysis. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| statisticsType = [[fieldEval,'SUM'],[fieldEval,'MEAN'],[fieldEval,'MIN'],[fieldEval,'MAX'],[fieldEval,'RANGE'],[fieldEval,'STD'],[fieldEval,'COUNT'],[fieldEval,'FIRST'],[fieldEval,'LAST']] | Estadísticos a obtener a través de arcpy.Statistics_analysis. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| statisticsType = [[fieldEval,'SUM'],[fieldEval,'MEAN'],[fieldEval,'MIN'],[fieldEval,'MAX'],[fieldEval,'RANGE'],[fieldEval,'STD'],[fieldEval,'COUNT'],[fieldEval,'FIRST'],[fieldEval,'LAST']] | Estadísticos a obtener a través de arcpy.Statistics_analysis. |  |  |</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| arcpy.Statistics_analysis(layerInput,layerOutpu,statisticsType) | Obtención de estadísticos de la capa. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| arcpy.Statistics_analysis(layerInput,layerOutpu,statisticsType) | Obtención de estadísticos de la capa. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| arcpy.Statistics_analysis(layerInput,layerOutpu,statisticsType) | Obtención de estadísticos de la capa. |  |  |</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Microsoft Excel. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Microsoft Excel. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| arcpy.TableToExcel_conversion(layerStatistic,layerStatisticXLS) | Conversión de tabla a libro de Microsoft Excel. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">

--- a/.Temp/ExcelTableToMarkDownSample.xlsx
+++ b/.Temp/ExcelTableToMarkDownSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\.Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07427817-3515-4A76-BF70-D9AB5A627083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA4F896-C90F-4BD1-8A2B-25D086A6C0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>Contar el número de entidades espaciales de la capa.</t>
+  </si>
+  <si>
+    <t>layerMAPProject.getFeature(i)</t>
+  </si>
+  <si>
+    <t>Obtención de valores para cada registro encontrado en la capa.</t>
   </si>
 </sst>
 </file>
@@ -592,7 +598,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -863,22 +869,26 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| layerMAPProject.getFeature(i) | Obtención de valores para cada registro encontrado en la capa. |</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| layerMAPProject.getFeature(i) | Obtención de valores para cada registro encontrado en la capa. |  |</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| layerMAPProject.getFeature(i) | Obtención de valores para cada registro encontrado en la capa. |  |  |</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">

--- a/.Temp/ExcelTableToMarkDownSample.xlsx
+++ b/.Temp/ExcelTableToMarkDownSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\.Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA4F896-C90F-4BD1-8A2B-25D086A6C0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E71D205-5BE9-44EB-8EE1-F541E74B196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -133,58 +133,25 @@
     <t>Pro</t>
   </si>
   <si>
-    <t>from qgis.core import *</t>
-  </si>
-  <si>
-    <t>import qgis.utils</t>
-  </si>
-  <si>
-    <t>import matplotlib.pyplot as plt</t>
-  </si>
-  <si>
-    <t>layerMAPProject = iface.addVectorLayer(layerInput,'','ogr')</t>
-  </si>
-  <si>
-    <t>layerMAPProject = QgsVectorLayer(layerInput,'','ogr')</t>
-  </si>
-  <si>
-    <t>Cargar capa a analizar en memoria de QGIS sin visualizar en el GUI.</t>
-  </si>
-  <si>
-    <t>layerMAPProject.id()</t>
-  </si>
-  <si>
-    <t>Importación del núcleo de QGIS.</t>
-  </si>
-  <si>
-    <t>Importación de paquete de utilidades generales.</t>
-  </si>
-  <si>
-    <t>Importación de paquete para administración del proyecto en el GUI de la aplicación.</t>
-  </si>
-  <si>
-    <t>Cargar y visualizar capa a analizar en mapa de QGIS. layerMAPProject corresponde a la variable de usuario definida para almacenar el identificador de la capa de entrada.</t>
-  </si>
-  <si>
-    <t>Mostrar el nombre del identificador interno de la capa en el entorno de QGIS.</t>
-  </si>
-  <si>
-    <t>layerMAPProject.fields()</t>
-  </si>
-  <si>
-    <t>Listar campos disponibles en la capa.</t>
-  </si>
-  <si>
-    <t>layerMAPProject.featureCount()</t>
-  </si>
-  <si>
-    <t>Contar el número de entidades espaciales de la capa.</t>
-  </si>
-  <si>
-    <t>layerMAPProject.getFeature(i)</t>
-  </si>
-  <si>
-    <t>Obtención de valores para cada registro encontrado en la capa.</t>
+    <t>Directorio</t>
+  </si>
+  <si>
+    <t>/Datos</t>
+  </si>
+  <si>
+    <t>/Mapas</t>
+  </si>
+  <si>
+    <t>/Output</t>
+  </si>
+  <si>
+    <t>Directorio de datos de entrada.</t>
+  </si>
+  <si>
+    <t>Directorio con mapas para visualización de resultados en ArcGIS for Desktop, ArcGIS Pro y QGIS.</t>
+  </si>
+  <si>
+    <t>Directorio de salida de capa filtrada y archivos de resultados estadísticos.</t>
   </si>
 </sst>
 </file>
@@ -598,7 +565,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G13"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -632,7 +599,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -646,15 +613,15 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Instrucción | Descripción |</v>
+        <v>| Directorio | Descripción |</v>
       </c>
       <c r="H3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Instrucción | Descripción | Desktop |</v>
+        <v>| Directorio | Descripción | Desktop |</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Instrucción | Descripción | Desktop | Pro |</v>
+        <v>| Directorio | Descripción | Desktop | Pro |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -686,209 +653,185 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| from qgis.core import * | Importación del núcleo de QGIS. |</v>
+        <v>| /Datos | Directorio de datos de entrada. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| from qgis.core import * | Importación del núcleo de QGIS. |  |</v>
+        <v>| /Datos | Directorio de datos de entrada. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| from qgis.core import * | Importación del núcleo de QGIS. |  |  |</v>
+        <v>| /Datos | Directorio de datos de entrada. |  |  |</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G24" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| import qgis.utils | Importación de paquete de utilidades generales. |</v>
+        <v>| /Mapas | Directorio con mapas para visualización de resultados en ArcGIS for Desktop, ArcGIS Pro y QGIS. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| import qgis.utils | Importación de paquete de utilidades generales. |  |</v>
+        <v>| /Mapas | Directorio con mapas para visualización de resultados en ArcGIS for Desktop, ArcGIS Pro y QGIS. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| import qgis.utils | Importación de paquete de utilidades generales. |  |  |</v>
+        <v>| /Mapas | Directorio con mapas para visualización de resultados en ArcGIS for Desktop, ArcGIS Pro y QGIS. |  |  |</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| import matplotlib.pyplot as plt | Importación de paquete para administración del proyecto en el GUI de la aplicación. |</v>
+        <v>| /Output | Directorio de salida de capa filtrada y archivos de resultados estadísticos. |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| import matplotlib.pyplot as plt | Importación de paquete para administración del proyecto en el GUI de la aplicación. |  |</v>
+        <v>| /Output | Directorio de salida de capa filtrada y archivos de resultados estadísticos. |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| import matplotlib.pyplot as plt | Importación de paquete para administración del proyecto en el GUI de la aplicación. |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>| /Output | Directorio de salida de capa filtrada y archivos de resultados estadísticos. |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| layerMAPProject = iface.addVectorLayer(layerInput,'','ogr') | Cargar y visualizar capa a analizar en mapa de QGIS. layerMAPProject corresponde a la variable de usuario definida para almacenar el identificador de la capa de entrada. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| layerMAPProject = iface.addVectorLayer(layerInput,'','ogr') | Cargar y visualizar capa a analizar en mapa de QGIS. layerMAPProject corresponde a la variable de usuario definida para almacenar el identificador de la capa de entrada. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| layerMAPProject = iface.addVectorLayer(layerInput,'','ogr') | Cargar y visualizar capa a analizar en mapa de QGIS. layerMAPProject corresponde a la variable de usuario definida para almacenar el identificador de la capa de entrada. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| layerMAPProject = QgsVectorLayer(layerInput,'','ogr') | Cargar capa a analizar en memoria de QGIS sin visualizar en el GUI. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| layerMAPProject = QgsVectorLayer(layerInput,'','ogr') | Cargar capa a analizar en memoria de QGIS sin visualizar en el GUI. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| layerMAPProject = QgsVectorLayer(layerInput,'','ogr') | Cargar capa a analizar en memoria de QGIS sin visualizar en el GUI. |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| layerMAPProject.id() | Mostrar el nombre del identificador interno de la capa en el entorno de QGIS. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| layerMAPProject.id() | Mostrar el nombre del identificador interno de la capa en el entorno de QGIS. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| layerMAPProject.id() | Mostrar el nombre del identificador interno de la capa en el entorno de QGIS. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| layerMAPProject.fields() | Listar campos disponibles en la capa. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| layerMAPProject.fields() | Listar campos disponibles en la capa. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| layerMAPProject.fields() | Listar campos disponibles en la capa. |  |  |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| layerMAPProject.featureCount() | Contar el número de entidades espaciales de la capa. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| layerMAPProject.featureCount() | Contar el número de entidades espaciales de la capa. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| layerMAPProject.featureCount() | Contar el número de entidades espaciales de la capa. |  |  |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| layerMAPProject.getFeature(i) | Obtención de valores para cada registro encontrado en la capa. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| layerMAPProject.getFeature(i) | Obtención de valores para cada registro encontrado en la capa. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| layerMAPProject.getFeature(i) | Obtención de valores para cada registro encontrado en la capa. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
